--- a/code/build/results_MyFireflyD50_elitista/results_cec2017_50.xlsx
+++ b/code/build/results_MyFireflyD50_elitista/results_cec2017_50.xlsx
@@ -603,94 +603,94 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4921020800</v>
+        <v>6203023000</v>
       </c>
       <c r="D2" t="n">
-        <v>6.011575596168159e+55</v>
+        <v>2.9897e+50</v>
       </c>
       <c r="E2" t="n">
-        <v>312399.68</v>
+        <v>338951.2</v>
       </c>
       <c r="F2" t="n">
-        <v>779.73384</v>
+        <v>614.804</v>
       </c>
       <c r="G2" t="n">
-        <v>489.2449800000001</v>
+        <v>590.8561</v>
       </c>
       <c r="H2" t="n">
-        <v>84.58552399999999</v>
+        <v>75.90219999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>953.3761200000001</v>
+        <v>981.4181</v>
       </c>
       <c r="J2" t="n">
-        <v>594.3319</v>
+        <v>516.611</v>
       </c>
       <c r="K2" t="n">
-        <v>40909.836</v>
+        <v>32719.85</v>
       </c>
       <c r="L2" t="n">
-        <v>9400.1656</v>
+        <v>10320.12</v>
       </c>
       <c r="M2" t="n">
-        <v>17361.3082</v>
+        <v>36751.3</v>
       </c>
       <c r="N2" t="n">
-        <v>743450780</v>
+        <v>273083000</v>
       </c>
       <c r="O2" t="n">
-        <v>16898796.4</v>
+        <v>15265590</v>
       </c>
       <c r="P2" t="n">
-        <v>2430418.18</v>
+        <v>461234.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>4755521.4</v>
+        <v>6129227</v>
       </c>
       <c r="R2" t="n">
-        <v>2869.4328</v>
+        <v>3101.083</v>
       </c>
       <c r="S2" t="n">
-        <v>2288.5056</v>
+        <v>2296.994</v>
       </c>
       <c r="T2" t="n">
-        <v>19254792</v>
+        <v>21206610</v>
       </c>
       <c r="U2" t="n">
-        <v>23164471.6</v>
+        <v>26343480</v>
       </c>
       <c r="V2" t="n">
-        <v>1376.8604</v>
+        <v>1938.728</v>
       </c>
       <c r="W2" t="n">
-        <v>770.7253800000001</v>
+        <v>766.4379</v>
       </c>
       <c r="X2" t="n">
-        <v>9714.009399999999</v>
+        <v>10217.61</v>
       </c>
       <c r="Y2" t="n">
-        <v>1132.5532</v>
+        <v>1175.555</v>
       </c>
       <c r="Z2" t="n">
-        <v>1170.25028</v>
+        <v>1435.123</v>
       </c>
       <c r="AA2" t="n">
-        <v>1191.6766</v>
+        <v>1714.603</v>
       </c>
       <c r="AB2" t="n">
-        <v>10196.3294</v>
+        <v>13741.22</v>
       </c>
       <c r="AC2" t="n">
-        <v>1524.632</v>
+        <v>1718.703</v>
       </c>
       <c r="AD2" t="n">
-        <v>1706.0874</v>
+        <v>3290.221</v>
       </c>
       <c r="AE2" t="n">
-        <v>4190.6006</v>
+        <v>5884.489</v>
       </c>
       <c r="AF2" t="n">
-        <v>229725200</v>
+        <v>120776200</v>
       </c>
       <c r="AG2" t="n">
         <v>50</v>
@@ -704,94 +704,94 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>130045594</v>
+        <v>90708900</v>
       </c>
       <c r="D3" t="n">
-        <v>4.3199182534806e+39</v>
+        <v>1.984736e+38</v>
       </c>
       <c r="E3" t="n">
-        <v>209664.42</v>
+        <v>220292.4</v>
       </c>
       <c r="F3" t="n">
-        <v>253.86134</v>
+        <v>291.5224</v>
       </c>
       <c r="G3" t="n">
-        <v>404.2793</v>
+        <v>437.5959</v>
       </c>
       <c r="H3" t="n">
-        <v>70.888406</v>
+        <v>59.43827</v>
       </c>
       <c r="I3" t="n">
-        <v>561.1967999999999</v>
+        <v>558.606</v>
       </c>
       <c r="J3" t="n">
-        <v>502.36864</v>
+        <v>393.1791</v>
       </c>
       <c r="K3" t="n">
-        <v>19431.04</v>
+        <v>13372.6</v>
       </c>
       <c r="L3" t="n">
-        <v>7102.4648</v>
+        <v>7764.392</v>
       </c>
       <c r="M3" t="n">
-        <v>930.8602800000001</v>
+        <v>767.6952</v>
       </c>
       <c r="N3" t="n">
-        <v>222973200</v>
+        <v>45771000</v>
       </c>
       <c r="O3" t="n">
-        <v>270858.44</v>
+        <v>301678.7</v>
       </c>
       <c r="P3" t="n">
-        <v>260960.34</v>
+        <v>68102.39999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>111964.482</v>
+        <v>55679.11</v>
       </c>
       <c r="R3" t="n">
-        <v>2536.8246</v>
+        <v>2614.197</v>
       </c>
       <c r="S3" t="n">
-        <v>2113.8956</v>
+        <v>2143.336</v>
       </c>
       <c r="T3" t="n">
-        <v>1187172.54</v>
+        <v>3845973</v>
       </c>
       <c r="U3" t="n">
-        <v>10283458.2</v>
+        <v>9428594</v>
       </c>
       <c r="V3" t="n">
-        <v>1243.61794</v>
+        <v>1793.946</v>
       </c>
       <c r="W3" t="n">
-        <v>690.5479800000001</v>
+        <v>607.4032999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>7771.3636</v>
+        <v>8486.441000000001</v>
       </c>
       <c r="Y3" t="n">
-        <v>1027.21368</v>
+        <v>1052.337</v>
       </c>
       <c r="Z3" t="n">
-        <v>1100.16494</v>
+        <v>1366.454</v>
       </c>
       <c r="AA3" t="n">
-        <v>657.36376</v>
+        <v>727.6027</v>
       </c>
       <c r="AB3" t="n">
-        <v>9338.359399999999</v>
+        <v>12386.34</v>
       </c>
       <c r="AC3" t="n">
-        <v>1434.63</v>
+        <v>1579.961</v>
       </c>
       <c r="AD3" t="n">
-        <v>632.5714399999999</v>
+        <v>1072.783</v>
       </c>
       <c r="AE3" t="n">
-        <v>3573.3286</v>
+        <v>5098.971</v>
       </c>
       <c r="AF3" t="n">
-        <v>74551952</v>
+        <v>87643540</v>
       </c>
       <c r="AG3" t="n">
         <v>50</v>
@@ -805,94 +805,94 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>49270604</v>
+        <v>26273520</v>
       </c>
       <c r="D4" t="n">
-        <v>1.049435584239e+39</v>
+        <v>8.141381999999999e+37</v>
       </c>
       <c r="E4" t="n">
-        <v>153075.84</v>
+        <v>143491.9</v>
       </c>
       <c r="F4" t="n">
-        <v>236.04712</v>
+        <v>284.1633</v>
       </c>
       <c r="G4" t="n">
-        <v>398.01954</v>
+        <v>430.4623</v>
       </c>
       <c r="H4" t="n">
-        <v>69.84053</v>
+        <v>57.73475</v>
       </c>
       <c r="I4" t="n">
-        <v>518.2464600000001</v>
+        <v>512.1459</v>
       </c>
       <c r="J4" t="n">
-        <v>496.14174</v>
+        <v>388.3115</v>
       </c>
       <c r="K4" t="n">
-        <v>15756.334</v>
+        <v>11714.91</v>
       </c>
       <c r="L4" t="n">
-        <v>6920.997</v>
+        <v>7319.306</v>
       </c>
       <c r="M4" t="n">
-        <v>673.0861600000001</v>
+        <v>608.4811</v>
       </c>
       <c r="N4" t="n">
-        <v>185065732</v>
+        <v>39415570</v>
       </c>
       <c r="O4" t="n">
-        <v>246085.64</v>
+        <v>286476.3</v>
       </c>
       <c r="P4" t="n">
-        <v>100327.244</v>
+        <v>13496.43</v>
       </c>
       <c r="Q4" t="n">
-        <v>104113.12</v>
+        <v>41349.9</v>
       </c>
       <c r="R4" t="n">
-        <v>2509.1854</v>
+        <v>2495.963</v>
       </c>
       <c r="S4" t="n">
-        <v>2100.2086</v>
+        <v>2131.507</v>
       </c>
       <c r="T4" t="n">
-        <v>388219.28</v>
+        <v>411070.3</v>
       </c>
       <c r="U4" t="n">
-        <v>7070672.8</v>
+        <v>8731580</v>
       </c>
       <c r="V4" t="n">
-        <v>1228.13922</v>
+        <v>1774.07</v>
       </c>
       <c r="W4" t="n">
-        <v>685.38408</v>
+        <v>596.5991</v>
       </c>
       <c r="X4" t="n">
-        <v>7618.886199999999</v>
+        <v>8346.343000000001</v>
       </c>
       <c r="Y4" t="n">
-        <v>1015.96076</v>
+        <v>1042.658</v>
       </c>
       <c r="Z4" t="n">
-        <v>1097.19464</v>
+        <v>1360.725</v>
       </c>
       <c r="AA4" t="n">
-        <v>637.02568</v>
+        <v>699.8502</v>
       </c>
       <c r="AB4" t="n">
-        <v>9270.911</v>
+        <v>12325.08</v>
       </c>
       <c r="AC4" t="n">
-        <v>1419.4146</v>
+        <v>1566.501</v>
       </c>
       <c r="AD4" t="n">
-        <v>605.20652</v>
+        <v>922.8203999999999</v>
       </c>
       <c r="AE4" t="n">
-        <v>3432.0468</v>
+        <v>5069.611</v>
       </c>
       <c r="AF4" t="n">
-        <v>56597782</v>
+        <v>61754730</v>
       </c>
       <c r="AG4" t="n">
         <v>50</v>
@@ -906,94 +906,94 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>21424812</v>
+        <v>7613314</v>
       </c>
       <c r="D5" t="n">
-        <v>1.049430820519e+39</v>
+        <v>8.141381999999999e+37</v>
       </c>
       <c r="E5" t="n">
-        <v>123645.452</v>
+        <v>129401.7</v>
       </c>
       <c r="F5" t="n">
-        <v>222.37006</v>
+        <v>274.7123</v>
       </c>
       <c r="G5" t="n">
-        <v>396.46874</v>
+        <v>428.6909</v>
       </c>
       <c r="H5" t="n">
-        <v>69.52733000000001</v>
+        <v>57.03603</v>
       </c>
       <c r="I5" t="n">
-        <v>509.14816</v>
+        <v>497.2408</v>
       </c>
       <c r="J5" t="n">
-        <v>494.5716</v>
+        <v>386.4513</v>
       </c>
       <c r="K5" t="n">
-        <v>14887.606</v>
+        <v>11240.22</v>
       </c>
       <c r="L5" t="n">
-        <v>6882.5958</v>
+        <v>7234.639</v>
       </c>
       <c r="M5" t="n">
-        <v>590.66106</v>
+        <v>521.8538</v>
       </c>
       <c r="N5" t="n">
-        <v>151263958</v>
+        <v>36828900</v>
       </c>
       <c r="O5" t="n">
-        <v>246012.26</v>
+        <v>286413</v>
       </c>
       <c r="P5" t="n">
-        <v>33759.113</v>
+        <v>13051.43</v>
       </c>
       <c r="Q5" t="n">
-        <v>104082.662</v>
+        <v>41338.47</v>
       </c>
       <c r="R5" t="n">
-        <v>2484.7998</v>
+        <v>2435.646</v>
       </c>
       <c r="S5" t="n">
-        <v>2093.7316</v>
+        <v>2127.96</v>
       </c>
       <c r="T5" t="n">
-        <v>214672.38</v>
+        <v>401120.7</v>
       </c>
       <c r="U5" t="n">
-        <v>3477537.78</v>
+        <v>5673756</v>
       </c>
       <c r="V5" t="n">
-        <v>1222.93402</v>
+        <v>1768.284</v>
       </c>
       <c r="W5" t="n">
-        <v>683.42608</v>
+        <v>591.1814000000001</v>
       </c>
       <c r="X5" t="n">
-        <v>7576.857400000001</v>
+        <v>8278.163</v>
       </c>
       <c r="Y5" t="n">
-        <v>1011.93788</v>
+        <v>1037.773</v>
       </c>
       <c r="Z5" t="n">
-        <v>1096.60186</v>
+        <v>1358.143</v>
       </c>
       <c r="AA5" t="n">
-        <v>622.3350800000001</v>
+        <v>671.8598</v>
       </c>
       <c r="AB5" t="n">
-        <v>9246.9692</v>
+        <v>12296.63</v>
       </c>
       <c r="AC5" t="n">
-        <v>1409.6082</v>
+        <v>1558.974</v>
       </c>
       <c r="AD5" t="n">
-        <v>588.08296</v>
+        <v>846.0953</v>
       </c>
       <c r="AE5" t="n">
-        <v>3357.689</v>
+        <v>5043.326</v>
       </c>
       <c r="AF5" t="n">
-        <v>42371002</v>
+        <v>52340230</v>
       </c>
       <c r="AG5" t="n">
         <v>50</v>
@@ -1007,94 +1007,94 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>8379207.2</v>
+        <v>2456622</v>
       </c>
       <c r="D6" t="n">
-        <v>1.049430820519e+39</v>
+        <v>8.141381999999999e+37</v>
       </c>
       <c r="E6" t="n">
-        <v>94686.68799999999</v>
+        <v>111873.9</v>
       </c>
       <c r="F6" t="n">
-        <v>210.92432</v>
+        <v>265.9057</v>
       </c>
       <c r="G6" t="n">
-        <v>395.9623</v>
+        <v>427.8993</v>
       </c>
       <c r="H6" t="n">
-        <v>69.330074</v>
+        <v>56.72039</v>
       </c>
       <c r="I6" t="n">
-        <v>505.2901</v>
+        <v>484.4076</v>
       </c>
       <c r="J6" t="n">
-        <v>493.97344</v>
+        <v>385.3732</v>
       </c>
       <c r="K6" t="n">
-        <v>14317.486</v>
+        <v>10378.45</v>
       </c>
       <c r="L6" t="n">
-        <v>6857.785399999999</v>
+        <v>7206.923</v>
       </c>
       <c r="M6" t="n">
-        <v>534.4064000000001</v>
+        <v>439.7748</v>
       </c>
       <c r="N6" t="n">
-        <v>116539050</v>
+        <v>35514380</v>
       </c>
       <c r="O6" t="n">
-        <v>245989.44</v>
+        <v>286376.4</v>
       </c>
       <c r="P6" t="n">
-        <v>26733.1378</v>
+        <v>12983.79</v>
       </c>
       <c r="Q6" t="n">
-        <v>104069.66</v>
+        <v>41336.41</v>
       </c>
       <c r="R6" t="n">
-        <v>2449.1956</v>
+        <v>2285.642</v>
       </c>
       <c r="S6" t="n">
-        <v>2091.4198</v>
+        <v>2126.314</v>
       </c>
       <c r="T6" t="n">
-        <v>175792.456</v>
+        <v>398957.3</v>
       </c>
       <c r="U6" t="n">
-        <v>2825640.14</v>
+        <v>3589329</v>
       </c>
       <c r="V6" t="n">
-        <v>1217.68476</v>
+        <v>1754.916</v>
       </c>
       <c r="W6" t="n">
-        <v>682.61454</v>
+        <v>587.8912</v>
       </c>
       <c r="X6" t="n">
-        <v>7545.0552</v>
+        <v>8234.296</v>
       </c>
       <c r="Y6" t="n">
-        <v>1009.92574</v>
+        <v>1034.362</v>
       </c>
       <c r="Z6" t="n">
-        <v>1096.40892</v>
+        <v>1357.194</v>
       </c>
       <c r="AA6" t="n">
-        <v>612.5751</v>
+        <v>655.7506</v>
       </c>
       <c r="AB6" t="n">
-        <v>9227.641399999999</v>
+        <v>12272.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>1398.5566</v>
+        <v>1557.441</v>
       </c>
       <c r="AD6" t="n">
-        <v>574.9611</v>
+        <v>716.6805000000001</v>
       </c>
       <c r="AE6" t="n">
-        <v>3281.3426</v>
+        <v>5012.656</v>
       </c>
       <c r="AF6" t="n">
-        <v>37770410</v>
+        <v>42082660</v>
       </c>
       <c r="AG6" t="n">
         <v>50</v>
@@ -1108,94 +1108,94 @@
         <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>8020953.2</v>
+        <v>2417903</v>
       </c>
       <c r="D7" t="n">
-        <v>1.049430820519e+39</v>
+        <v>8.141381999999999e+37</v>
       </c>
       <c r="E7" t="n">
-        <v>90518.088</v>
+        <v>111148.7</v>
       </c>
       <c r="F7" t="n">
-        <v>209.73572</v>
+        <v>265.4727</v>
       </c>
       <c r="G7" t="n">
-        <v>395.9623</v>
+        <v>427.8658</v>
       </c>
       <c r="H7" t="n">
-        <v>69.326218</v>
+        <v>56.72039</v>
       </c>
       <c r="I7" t="n">
-        <v>505.2666</v>
+        <v>483.8842</v>
       </c>
       <c r="J7" t="n">
-        <v>493.97344</v>
+        <v>385.3732</v>
       </c>
       <c r="K7" t="n">
-        <v>14308.456</v>
+        <v>10308.47</v>
       </c>
       <c r="L7" t="n">
-        <v>6857.073399999999</v>
+        <v>7202.477</v>
       </c>
       <c r="M7" t="n">
-        <v>533.0790800000001</v>
+        <v>434.4482</v>
       </c>
       <c r="N7" t="n">
-        <v>115376618</v>
+        <v>35453180</v>
       </c>
       <c r="O7" t="n">
-        <v>245989.36</v>
+        <v>286376.4</v>
       </c>
       <c r="P7" t="n">
-        <v>18951.4742</v>
+        <v>12983.51</v>
       </c>
       <c r="Q7" t="n">
-        <v>104069.66</v>
+        <v>41336.41</v>
       </c>
       <c r="R7" t="n">
-        <v>2441.6204</v>
+        <v>2248.957</v>
       </c>
       <c r="S7" t="n">
-        <v>2091.4136</v>
+        <v>2126.31</v>
       </c>
       <c r="T7" t="n">
-        <v>174496.59</v>
+        <v>398953.4</v>
       </c>
       <c r="U7" t="n">
-        <v>2821180.34</v>
+        <v>3588230</v>
       </c>
       <c r="V7" t="n">
-        <v>1217.63786</v>
+        <v>1754.912</v>
       </c>
       <c r="W7" t="n">
-        <v>682.6054799999999</v>
+        <v>587.8912</v>
       </c>
       <c r="X7" t="n">
-        <v>7544.6606</v>
+        <v>8234.028</v>
       </c>
       <c r="Y7" t="n">
-        <v>1009.925</v>
+        <v>1034.362</v>
       </c>
       <c r="Z7" t="n">
-        <v>1096.40852</v>
+        <v>1357.191</v>
       </c>
       <c r="AA7" t="n">
-        <v>612.40608</v>
+        <v>655.6268</v>
       </c>
       <c r="AB7" t="n">
-        <v>9227.236800000001</v>
+        <v>12272.49</v>
       </c>
       <c r="AC7" t="n">
-        <v>1398.5514</v>
+        <v>1557.37</v>
       </c>
       <c r="AD7" t="n">
-        <v>574.90488</v>
+        <v>710.5547</v>
       </c>
       <c r="AE7" t="n">
-        <v>3277.025</v>
+        <v>5012.65</v>
       </c>
       <c r="AF7" t="n">
-        <v>37678238</v>
+        <v>41615180</v>
       </c>
       <c r="AG7" t="n">
         <v>50</v>
@@ -1209,94 +1209,94 @@
         <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>8020953.2</v>
+        <v>2417903</v>
       </c>
       <c r="D8" t="n">
-        <v>1.049430820519e+39</v>
+        <v>8.141381999999999e+37</v>
       </c>
       <c r="E8" t="n">
-        <v>90518.088</v>
+        <v>111148.7</v>
       </c>
       <c r="F8" t="n">
-        <v>209.73572</v>
+        <v>265.4727</v>
       </c>
       <c r="G8" t="n">
-        <v>395.9623</v>
+        <v>427.8658</v>
       </c>
       <c r="H8" t="n">
-        <v>69.326218</v>
+        <v>56.72039</v>
       </c>
       <c r="I8" t="n">
-        <v>505.2666</v>
+        <v>483.8842</v>
       </c>
       <c r="J8" t="n">
-        <v>493.97344</v>
+        <v>385.3732</v>
       </c>
       <c r="K8" t="n">
-        <v>14308.456</v>
+        <v>10308.47</v>
       </c>
       <c r="L8" t="n">
-        <v>6857.073399999999</v>
+        <v>7202.477</v>
       </c>
       <c r="M8" t="n">
-        <v>533.0790800000001</v>
+        <v>434.4482</v>
       </c>
       <c r="N8" t="n">
-        <v>115376618</v>
+        <v>35453180</v>
       </c>
       <c r="O8" t="n">
-        <v>245989.36</v>
+        <v>286376.4</v>
       </c>
       <c r="P8" t="n">
-        <v>18951.4742</v>
+        <v>12983.51</v>
       </c>
       <c r="Q8" t="n">
-        <v>104069.66</v>
+        <v>41336.41</v>
       </c>
       <c r="R8" t="n">
-        <v>2441.6204</v>
+        <v>2248.957</v>
       </c>
       <c r="S8" t="n">
-        <v>2091.4136</v>
+        <v>2126.31</v>
       </c>
       <c r="T8" t="n">
-        <v>174496.59</v>
+        <v>398953.4</v>
       </c>
       <c r="U8" t="n">
-        <v>2821180.34</v>
+        <v>3588230</v>
       </c>
       <c r="V8" t="n">
-        <v>1217.63786</v>
+        <v>1754.912</v>
       </c>
       <c r="W8" t="n">
-        <v>682.6054799999999</v>
+        <v>587.8912</v>
       </c>
       <c r="X8" t="n">
-        <v>7544.6606</v>
+        <v>8234.028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1009.925</v>
+        <v>1034.362</v>
       </c>
       <c r="Z8" t="n">
-        <v>1096.40852</v>
+        <v>1357.191</v>
       </c>
       <c r="AA8" t="n">
-        <v>612.40608</v>
+        <v>655.6268</v>
       </c>
       <c r="AB8" t="n">
-        <v>9227.236800000001</v>
+        <v>12272.49</v>
       </c>
       <c r="AC8" t="n">
-        <v>1398.5514</v>
+        <v>1557.37</v>
       </c>
       <c r="AD8" t="n">
-        <v>574.90488</v>
+        <v>710.5547</v>
       </c>
       <c r="AE8" t="n">
-        <v>3277.025</v>
+        <v>5012.65</v>
       </c>
       <c r="AF8" t="n">
-        <v>37678238</v>
+        <v>41615180</v>
       </c>
       <c r="AG8" t="n">
         <v>50</v>
@@ -1310,94 +1310,94 @@
         <v>40</v>
       </c>
       <c r="C9" t="n">
-        <v>8020953.2</v>
+        <v>2417903</v>
       </c>
       <c r="D9" t="n">
-        <v>1.049430820519e+39</v>
+        <v>8.141381999999999e+37</v>
       </c>
       <c r="E9" t="n">
-        <v>90518.088</v>
+        <v>111148.7</v>
       </c>
       <c r="F9" t="n">
-        <v>209.73572</v>
+        <v>265.4727</v>
       </c>
       <c r="G9" t="n">
-        <v>395.9623</v>
+        <v>427.8658</v>
       </c>
       <c r="H9" t="n">
-        <v>69.326218</v>
+        <v>56.72039</v>
       </c>
       <c r="I9" t="n">
-        <v>505.2666</v>
+        <v>483.8842</v>
       </c>
       <c r="J9" t="n">
-        <v>493.97344</v>
+        <v>385.3732</v>
       </c>
       <c r="K9" t="n">
-        <v>14308.456</v>
+        <v>10308.47</v>
       </c>
       <c r="L9" t="n">
-        <v>6857.073399999999</v>
+        <v>7202.477</v>
       </c>
       <c r="M9" t="n">
-        <v>533.0790800000001</v>
+        <v>434.4482</v>
       </c>
       <c r="N9" t="n">
-        <v>115376618</v>
+        <v>35453180</v>
       </c>
       <c r="O9" t="n">
-        <v>245989.36</v>
+        <v>286376.4</v>
       </c>
       <c r="P9" t="n">
-        <v>18951.4742</v>
+        <v>12983.51</v>
       </c>
       <c r="Q9" t="n">
-        <v>104069.66</v>
+        <v>41336.41</v>
       </c>
       <c r="R9" t="n">
-        <v>2441.6204</v>
+        <v>2248.957</v>
       </c>
       <c r="S9" t="n">
-        <v>2091.4136</v>
+        <v>2126.31</v>
       </c>
       <c r="T9" t="n">
-        <v>174496.59</v>
+        <v>398953.4</v>
       </c>
       <c r="U9" t="n">
-        <v>2821180.34</v>
+        <v>3588230</v>
       </c>
       <c r="V9" t="n">
-        <v>1217.63786</v>
+        <v>1754.912</v>
       </c>
       <c r="W9" t="n">
-        <v>682.6054799999999</v>
+        <v>587.8912</v>
       </c>
       <c r="X9" t="n">
-        <v>7544.6606</v>
+        <v>8234.028</v>
       </c>
       <c r="Y9" t="n">
-        <v>1009.925</v>
+        <v>1034.362</v>
       </c>
       <c r="Z9" t="n">
-        <v>1096.40852</v>
+        <v>1357.191</v>
       </c>
       <c r="AA9" t="n">
-        <v>612.40608</v>
+        <v>655.6268</v>
       </c>
       <c r="AB9" t="n">
-        <v>9227.236800000001</v>
+        <v>12272.49</v>
       </c>
       <c r="AC9" t="n">
-        <v>1398.5514</v>
+        <v>1557.37</v>
       </c>
       <c r="AD9" t="n">
-        <v>574.90488</v>
+        <v>710.5547</v>
       </c>
       <c r="AE9" t="n">
-        <v>3277.025</v>
+        <v>5012.65</v>
       </c>
       <c r="AF9" t="n">
-        <v>37678238</v>
+        <v>41615180</v>
       </c>
       <c r="AG9" t="n">
         <v>50</v>
@@ -1411,94 +1411,94 @@
         <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>8020953.2</v>
+        <v>2417903</v>
       </c>
       <c r="D10" t="n">
-        <v>1.049430820519e+39</v>
+        <v>8.141381999999999e+37</v>
       </c>
       <c r="E10" t="n">
-        <v>90518.088</v>
+        <v>111148.7</v>
       </c>
       <c r="F10" t="n">
-        <v>209.73572</v>
+        <v>265.4727</v>
       </c>
       <c r="G10" t="n">
-        <v>395.9623</v>
+        <v>427.8658</v>
       </c>
       <c r="H10" t="n">
-        <v>69.326218</v>
+        <v>56.72039</v>
       </c>
       <c r="I10" t="n">
-        <v>505.2666</v>
+        <v>483.8842</v>
       </c>
       <c r="J10" t="n">
-        <v>493.97344</v>
+        <v>385.3732</v>
       </c>
       <c r="K10" t="n">
-        <v>14308.456</v>
+        <v>10308.47</v>
       </c>
       <c r="L10" t="n">
-        <v>6857.073399999999</v>
+        <v>7202.477</v>
       </c>
       <c r="M10" t="n">
-        <v>533.0790800000001</v>
+        <v>434.4482</v>
       </c>
       <c r="N10" t="n">
-        <v>115376618</v>
+        <v>35453180</v>
       </c>
       <c r="O10" t="n">
-        <v>245989.36</v>
+        <v>286376.4</v>
       </c>
       <c r="P10" t="n">
-        <v>18951.4742</v>
+        <v>12983.51</v>
       </c>
       <c r="Q10" t="n">
-        <v>104069.66</v>
+        <v>41336.41</v>
       </c>
       <c r="R10" t="n">
-        <v>2441.6204</v>
+        <v>2248.957</v>
       </c>
       <c r="S10" t="n">
-        <v>2091.4136</v>
+        <v>2126.31</v>
       </c>
       <c r="T10" t="n">
-        <v>174496.59</v>
+        <v>398953.4</v>
       </c>
       <c r="U10" t="n">
-        <v>2821180.34</v>
+        <v>3588230</v>
       </c>
       <c r="V10" t="n">
-        <v>1217.63786</v>
+        <v>1754.912</v>
       </c>
       <c r="W10" t="n">
-        <v>682.6054799999999</v>
+        <v>587.8912</v>
       </c>
       <c r="X10" t="n">
-        <v>7544.6606</v>
+        <v>8234.028</v>
       </c>
       <c r="Y10" t="n">
-        <v>1009.925</v>
+        <v>1034.362</v>
       </c>
       <c r="Z10" t="n">
-        <v>1096.40852</v>
+        <v>1357.191</v>
       </c>
       <c r="AA10" t="n">
-        <v>612.40608</v>
+        <v>655.6268</v>
       </c>
       <c r="AB10" t="n">
-        <v>9227.236800000001</v>
+        <v>12272.49</v>
       </c>
       <c r="AC10" t="n">
-        <v>1398.5514</v>
+        <v>1557.37</v>
       </c>
       <c r="AD10" t="n">
-        <v>574.90488</v>
+        <v>710.5547</v>
       </c>
       <c r="AE10" t="n">
-        <v>3277.025</v>
+        <v>5012.65</v>
       </c>
       <c r="AF10" t="n">
-        <v>37678238</v>
+        <v>41615180</v>
       </c>
       <c r="AG10" t="n">
         <v>50</v>
@@ -1512,94 +1512,94 @@
         <v>60</v>
       </c>
       <c r="C11" t="n">
-        <v>8020953.2</v>
+        <v>2417903</v>
       </c>
       <c r="D11" t="n">
-        <v>1.049430820519e+39</v>
+        <v>8.141381999999999e+37</v>
       </c>
       <c r="E11" t="n">
-        <v>90518.088</v>
+        <v>111148.7</v>
       </c>
       <c r="F11" t="n">
-        <v>209.73572</v>
+        <v>265.4727</v>
       </c>
       <c r="G11" t="n">
-        <v>395.9623</v>
+        <v>427.8658</v>
       </c>
       <c r="H11" t="n">
-        <v>69.326218</v>
+        <v>56.72039</v>
       </c>
       <c r="I11" t="n">
-        <v>505.2666</v>
+        <v>483.8842</v>
       </c>
       <c r="J11" t="n">
-        <v>493.97344</v>
+        <v>385.3732</v>
       </c>
       <c r="K11" t="n">
-        <v>14308.456</v>
+        <v>10308.47</v>
       </c>
       <c r="L11" t="n">
-        <v>6857.073399999999</v>
+        <v>7202.477</v>
       </c>
       <c r="M11" t="n">
-        <v>533.0790800000001</v>
+        <v>434.4482</v>
       </c>
       <c r="N11" t="n">
-        <v>115376618</v>
+        <v>35453180</v>
       </c>
       <c r="O11" t="n">
-        <v>245989.36</v>
+        <v>286376.4</v>
       </c>
       <c r="P11" t="n">
-        <v>18951.4742</v>
+        <v>12983.51</v>
       </c>
       <c r="Q11" t="n">
-        <v>104069.66</v>
+        <v>41336.41</v>
       </c>
       <c r="R11" t="n">
-        <v>2441.6204</v>
+        <v>2248.957</v>
       </c>
       <c r="S11" t="n">
-        <v>2091.4136</v>
+        <v>2126.31</v>
       </c>
       <c r="T11" t="n">
-        <v>174496.59</v>
+        <v>398953.4</v>
       </c>
       <c r="U11" t="n">
-        <v>2821180.34</v>
+        <v>3588230</v>
       </c>
       <c r="V11" t="n">
-        <v>1217.63786</v>
+        <v>1754.912</v>
       </c>
       <c r="W11" t="n">
-        <v>682.6054799999999</v>
+        <v>587.8912</v>
       </c>
       <c r="X11" t="n">
-        <v>7544.6606</v>
+        <v>8234.028</v>
       </c>
       <c r="Y11" t="n">
-        <v>1009.925</v>
+        <v>1034.362</v>
       </c>
       <c r="Z11" t="n">
-        <v>1096.40852</v>
+        <v>1357.191</v>
       </c>
       <c r="AA11" t="n">
-        <v>612.40608</v>
+        <v>655.6268</v>
       </c>
       <c r="AB11" t="n">
-        <v>9227.236800000001</v>
+        <v>12272.49</v>
       </c>
       <c r="AC11" t="n">
-        <v>1398.5514</v>
+        <v>1557.37</v>
       </c>
       <c r="AD11" t="n">
-        <v>574.90488</v>
+        <v>710.5547</v>
       </c>
       <c r="AE11" t="n">
-        <v>3277.025</v>
+        <v>5012.65</v>
       </c>
       <c r="AF11" t="n">
-        <v>37678238</v>
+        <v>41615180</v>
       </c>
       <c r="AG11" t="n">
         <v>50</v>
@@ -1613,94 +1613,94 @@
         <v>70</v>
       </c>
       <c r="C12" t="n">
-        <v>8020953.2</v>
+        <v>2417903</v>
       </c>
       <c r="D12" t="n">
-        <v>1.049430820519e+39</v>
+        <v>8.141381999999999e+37</v>
       </c>
       <c r="E12" t="n">
-        <v>90518.088</v>
+        <v>111148.7</v>
       </c>
       <c r="F12" t="n">
-        <v>209.73572</v>
+        <v>265.4727</v>
       </c>
       <c r="G12" t="n">
-        <v>395.9623</v>
+        <v>427.8658</v>
       </c>
       <c r="H12" t="n">
-        <v>69.326218</v>
+        <v>56.72039</v>
       </c>
       <c r="I12" t="n">
-        <v>505.2666</v>
+        <v>483.8842</v>
       </c>
       <c r="J12" t="n">
-        <v>493.97344</v>
+        <v>385.3732</v>
       </c>
       <c r="K12" t="n">
-        <v>14308.456</v>
+        <v>10308.47</v>
       </c>
       <c r="L12" t="n">
-        <v>6857.073399999999</v>
+        <v>7202.477</v>
       </c>
       <c r="M12" t="n">
-        <v>533.0790800000001</v>
+        <v>434.4482</v>
       </c>
       <c r="N12" t="n">
-        <v>115376618</v>
+        <v>35453180</v>
       </c>
       <c r="O12" t="n">
-        <v>245989.36</v>
+        <v>286376.4</v>
       </c>
       <c r="P12" t="n">
-        <v>18951.4742</v>
+        <v>12983.51</v>
       </c>
       <c r="Q12" t="n">
-        <v>104069.66</v>
+        <v>41336.41</v>
       </c>
       <c r="R12" t="n">
-        <v>2441.6204</v>
+        <v>2248.957</v>
       </c>
       <c r="S12" t="n">
-        <v>2091.4136</v>
+        <v>2126.31</v>
       </c>
       <c r="T12" t="n">
-        <v>174496.59</v>
+        <v>398953.4</v>
       </c>
       <c r="U12" t="n">
-        <v>2821180.34</v>
+        <v>3588230</v>
       </c>
       <c r="V12" t="n">
-        <v>1217.63786</v>
+        <v>1754.912</v>
       </c>
       <c r="W12" t="n">
-        <v>682.6054799999999</v>
+        <v>587.8912</v>
       </c>
       <c r="X12" t="n">
-        <v>7544.6606</v>
+        <v>8234.028</v>
       </c>
       <c r="Y12" t="n">
-        <v>1009.925</v>
+        <v>1034.362</v>
       </c>
       <c r="Z12" t="n">
-        <v>1096.40852</v>
+        <v>1357.191</v>
       </c>
       <c r="AA12" t="n">
-        <v>612.40608</v>
+        <v>655.6268</v>
       </c>
       <c r="AB12" t="n">
-        <v>9227.236800000001</v>
+        <v>12272.49</v>
       </c>
       <c r="AC12" t="n">
-        <v>1398.5514</v>
+        <v>1557.37</v>
       </c>
       <c r="AD12" t="n">
-        <v>574.90488</v>
+        <v>710.5547</v>
       </c>
       <c r="AE12" t="n">
-        <v>3277.025</v>
+        <v>5012.65</v>
       </c>
       <c r="AF12" t="n">
-        <v>37678238</v>
+        <v>41615180</v>
       </c>
       <c r="AG12" t="n">
         <v>50</v>
@@ -1714,94 +1714,94 @@
         <v>80</v>
       </c>
       <c r="C13" t="n">
-        <v>8020953.2</v>
+        <v>2417903</v>
       </c>
       <c r="D13" t="n">
-        <v>1.049430820519e+39</v>
+        <v>8.141381999999999e+37</v>
       </c>
       <c r="E13" t="n">
-        <v>90518.088</v>
+        <v>111148.7</v>
       </c>
       <c r="F13" t="n">
-        <v>209.73572</v>
+        <v>265.4727</v>
       </c>
       <c r="G13" t="n">
-        <v>395.9623</v>
+        <v>427.8658</v>
       </c>
       <c r="H13" t="n">
-        <v>69.326218</v>
+        <v>56.72039</v>
       </c>
       <c r="I13" t="n">
-        <v>505.2666</v>
+        <v>483.8842</v>
       </c>
       <c r="J13" t="n">
-        <v>493.97344</v>
+        <v>385.3732</v>
       </c>
       <c r="K13" t="n">
-        <v>14308.456</v>
+        <v>10308.47</v>
       </c>
       <c r="L13" t="n">
-        <v>6857.073399999999</v>
+        <v>7202.477</v>
       </c>
       <c r="M13" t="n">
-        <v>533.0790800000001</v>
+        <v>434.4482</v>
       </c>
       <c r="N13" t="n">
-        <v>115376618</v>
+        <v>35453180</v>
       </c>
       <c r="O13" t="n">
-        <v>245989.36</v>
+        <v>286376.4</v>
       </c>
       <c r="P13" t="n">
-        <v>18951.4742</v>
+        <v>12983.51</v>
       </c>
       <c r="Q13" t="n">
-        <v>104069.66</v>
+        <v>41336.41</v>
       </c>
       <c r="R13" t="n">
-        <v>2441.6204</v>
+        <v>2248.957</v>
       </c>
       <c r="S13" t="n">
-        <v>2091.4136</v>
+        <v>2126.31</v>
       </c>
       <c r="T13" t="n">
-        <v>174496.59</v>
+        <v>398953.4</v>
       </c>
       <c r="U13" t="n">
-        <v>2821180.34</v>
+        <v>3588230</v>
       </c>
       <c r="V13" t="n">
-        <v>1217.63786</v>
+        <v>1754.912</v>
       </c>
       <c r="W13" t="n">
-        <v>682.6054799999999</v>
+        <v>587.8912</v>
       </c>
       <c r="X13" t="n">
-        <v>7544.6606</v>
+        <v>8234.028</v>
       </c>
       <c r="Y13" t="n">
-        <v>1009.925</v>
+        <v>1034.362</v>
       </c>
       <c r="Z13" t="n">
-        <v>1096.40852</v>
+        <v>1357.191</v>
       </c>
       <c r="AA13" t="n">
-        <v>612.40608</v>
+        <v>655.6268</v>
       </c>
       <c r="AB13" t="n">
-        <v>9227.236800000001</v>
+        <v>12272.49</v>
       </c>
       <c r="AC13" t="n">
-        <v>1398.5514</v>
+        <v>1557.37</v>
       </c>
       <c r="AD13" t="n">
-        <v>574.90488</v>
+        <v>710.5547</v>
       </c>
       <c r="AE13" t="n">
-        <v>3277.025</v>
+        <v>5012.65</v>
       </c>
       <c r="AF13" t="n">
-        <v>37678238</v>
+        <v>41615180</v>
       </c>
       <c r="AG13" t="n">
         <v>50</v>
@@ -1815,94 +1815,94 @@
         <v>90</v>
       </c>
       <c r="C14" t="n">
-        <v>8020953.2</v>
+        <v>2417903</v>
       </c>
       <c r="D14" t="n">
-        <v>1.049430820519e+39</v>
+        <v>8.141381999999999e+37</v>
       </c>
       <c r="E14" t="n">
-        <v>90518.088</v>
+        <v>111148.7</v>
       </c>
       <c r="F14" t="n">
-        <v>209.73572</v>
+        <v>265.4727</v>
       </c>
       <c r="G14" t="n">
-        <v>395.9623</v>
+        <v>427.8658</v>
       </c>
       <c r="H14" t="n">
-        <v>69.326218</v>
+        <v>56.72039</v>
       </c>
       <c r="I14" t="n">
-        <v>505.2666</v>
+        <v>483.8842</v>
       </c>
       <c r="J14" t="n">
-        <v>493.97344</v>
+        <v>385.3732</v>
       </c>
       <c r="K14" t="n">
-        <v>14308.456</v>
+        <v>10308.47</v>
       </c>
       <c r="L14" t="n">
-        <v>6857.073399999999</v>
+        <v>7202.477</v>
       </c>
       <c r="M14" t="n">
-        <v>533.0790800000001</v>
+        <v>434.4482</v>
       </c>
       <c r="N14" t="n">
-        <v>115376618</v>
+        <v>35453180</v>
       </c>
       <c r="O14" t="n">
-        <v>245989.36</v>
+        <v>286376.4</v>
       </c>
       <c r="P14" t="n">
-        <v>18951.4742</v>
+        <v>12983.51</v>
       </c>
       <c r="Q14" t="n">
-        <v>104069.66</v>
+        <v>41336.41</v>
       </c>
       <c r="R14" t="n">
-        <v>2441.6204</v>
+        <v>2248.957</v>
       </c>
       <c r="S14" t="n">
-        <v>2091.4136</v>
+        <v>2126.31</v>
       </c>
       <c r="T14" t="n">
-        <v>174496.59</v>
+        <v>398953.4</v>
       </c>
       <c r="U14" t="n">
-        <v>2821180.34</v>
+        <v>3588230</v>
       </c>
       <c r="V14" t="n">
-        <v>1217.63786</v>
+        <v>1754.912</v>
       </c>
       <c r="W14" t="n">
-        <v>682.6054799999999</v>
+        <v>587.8912</v>
       </c>
       <c r="X14" t="n">
-        <v>7544.6606</v>
+        <v>8234.028</v>
       </c>
       <c r="Y14" t="n">
-        <v>1009.925</v>
+        <v>1034.362</v>
       </c>
       <c r="Z14" t="n">
-        <v>1096.40852</v>
+        <v>1357.191</v>
       </c>
       <c r="AA14" t="n">
-        <v>612.40608</v>
+        <v>655.6268</v>
       </c>
       <c r="AB14" t="n">
-        <v>9227.236800000001</v>
+        <v>12272.49</v>
       </c>
       <c r="AC14" t="n">
-        <v>1398.5514</v>
+        <v>1557.37</v>
       </c>
       <c r="AD14" t="n">
-        <v>574.90488</v>
+        <v>710.5547</v>
       </c>
       <c r="AE14" t="n">
-        <v>3277.025</v>
+        <v>5012.65</v>
       </c>
       <c r="AF14" t="n">
-        <v>37678238</v>
+        <v>41615180</v>
       </c>
       <c r="AG14" t="n">
         <v>50</v>
@@ -1916,94 +1916,94 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>8020953.2</v>
+        <v>2417903</v>
       </c>
       <c r="D15" t="n">
-        <v>1.049430820519e+39</v>
+        <v>8.141381999999999e+37</v>
       </c>
       <c r="E15" t="n">
-        <v>90518.088</v>
+        <v>111148.7</v>
       </c>
       <c r="F15" t="n">
-        <v>209.73572</v>
+        <v>265.4727</v>
       </c>
       <c r="G15" t="n">
-        <v>395.9623</v>
+        <v>427.8658</v>
       </c>
       <c r="H15" t="n">
-        <v>69.326218</v>
+        <v>56.72039</v>
       </c>
       <c r="I15" t="n">
-        <v>505.2666</v>
+        <v>483.8842</v>
       </c>
       <c r="J15" t="n">
-        <v>493.97344</v>
+        <v>385.3732</v>
       </c>
       <c r="K15" t="n">
-        <v>14308.456</v>
+        <v>10308.47</v>
       </c>
       <c r="L15" t="n">
-        <v>6857.073399999999</v>
+        <v>7202.477</v>
       </c>
       <c r="M15" t="n">
-        <v>533.0790800000001</v>
+        <v>434.4482</v>
       </c>
       <c r="N15" t="n">
-        <v>115376618</v>
+        <v>35453180</v>
       </c>
       <c r="O15" t="n">
-        <v>245989.36</v>
+        <v>286376.4</v>
       </c>
       <c r="P15" t="n">
-        <v>18951.4742</v>
+        <v>12983.51</v>
       </c>
       <c r="Q15" t="n">
-        <v>104069.66</v>
+        <v>41336.41</v>
       </c>
       <c r="R15" t="n">
-        <v>2441.6204</v>
+        <v>2248.957</v>
       </c>
       <c r="S15" t="n">
-        <v>2091.4136</v>
+        <v>2126.31</v>
       </c>
       <c r="T15" t="n">
-        <v>174496.59</v>
+        <v>398953.4</v>
       </c>
       <c r="U15" t="n">
-        <v>2821180.34</v>
+        <v>3588230</v>
       </c>
       <c r="V15" t="n">
-        <v>1217.63786</v>
+        <v>1754.912</v>
       </c>
       <c r="W15" t="n">
-        <v>682.6054799999999</v>
+        <v>587.8912</v>
       </c>
       <c r="X15" t="n">
-        <v>7544.6606</v>
+        <v>8234.028</v>
       </c>
       <c r="Y15" t="n">
-        <v>1009.925</v>
+        <v>1034.362</v>
       </c>
       <c r="Z15" t="n">
-        <v>1096.40852</v>
+        <v>1357.191</v>
       </c>
       <c r="AA15" t="n">
-        <v>612.40608</v>
+        <v>655.6268</v>
       </c>
       <c r="AB15" t="n">
-        <v>9227.236800000001</v>
+        <v>12272.49</v>
       </c>
       <c r="AC15" t="n">
-        <v>1398.5514</v>
+        <v>1557.37</v>
       </c>
       <c r="AD15" t="n">
-        <v>574.90488</v>
+        <v>710.5547</v>
       </c>
       <c r="AE15" t="n">
-        <v>3277.025</v>
+        <v>5012.65</v>
       </c>
       <c r="AF15" t="n">
-        <v>37678238</v>
+        <v>41615180</v>
       </c>
       <c r="AG15" t="n">
         <v>50</v>
